--- a/list_06_Mar17.xlsx
+++ b/list_06_Mar17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\upwork\boram-cloud-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA6D0B9-7161-480E-A0F8-44C37203949F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C85F5-DCAD-4E73-A8E4-DD275BB763DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20295" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11263,7 +11263,7 @@
   <dimension ref="A1:C3624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
